--- a/Simulation_Setup.xlsx
+++ b/Simulation_Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyson\github\OrbitalManeuverVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F56DF-12B1-4591-9C23-7517061E095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC564F4-1731-40A7-9EC4-D7DD3697D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13995" yWindow="2445" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
+    <workbookView xWindow="-13995" yWindow="2445" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bodies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>Start time</t>
+  </si>
+  <si>
+    <t>Periapsis (m)</t>
+  </si>
+  <si>
+    <t>Apoapsis (m)</t>
+  </si>
+  <si>
+    <t>Parent Body</t>
+  </si>
+  <si>
+    <t>Plane Adjust</t>
   </si>
 </sst>
 </file>
@@ -474,7 +486,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD123394-E213-40E5-A1D7-DD86BDA4FA91}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,13 +655,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -669,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>405400</v>
+        <v>200000</v>
       </c>
       <c r="C3" s="1">
-        <v>363230</v>
+        <v>200000</v>
       </c>
       <c r="D3">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -727,7 +739,7 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -744,7 +756,7 @@
         <v>230</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>270</v>
@@ -761,7 +773,7 @@
         <v>235</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>55</v>
@@ -779,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E481B1B-DFE1-4187-9074-BE2B64D6C1C0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,23 +823,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation_Setup.xlsx
+++ b/Simulation_Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyson\github\OrbitalManeuverVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC564F4-1731-40A7-9EC4-D7DD3697D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F913E1D-3F07-49EC-8730-5A9CF47503C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13995" yWindow="2445" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Plane Adjust</t>
+  </si>
+  <si>
+    <t>Transfer A</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A345BD4E-98DB-44D3-84BB-E97DFF0EBDEA}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +640,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200000</v>
+        <v>205000</v>
       </c>
       <c r="C3" s="1">
         <v>200000</v>
@@ -789,10 +792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E481B1B-DFE1-4187-9074-BE2B64D6C1C0}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +845,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simulation_Setup.xlsx
+++ b/Simulation_Setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyson\github\OrbitalManeuverVisualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyson\github\OrbitalManeuverVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F913E1D-3F07-49EC-8730-5A9CF47503C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACAAD5-B500-4EB7-93D5-63CE0E0ECE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13995" yWindow="2445" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
+    <workbookView xWindow="46320" yWindow="2670" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bodies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -133,7 +133,13 @@
     <t>Plane Adjust</t>
   </si>
   <si>
-    <t>Transfer A</t>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Circularization</t>
+  </si>
+  <si>
+    <t>Transfer to Lunar Orbit</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,15 +798,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E481B1B-DFE1-4187-9074-BE2B64D6C1C0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
@@ -827,19 +833,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>3600</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5310</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -847,21 +853,61 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>7200</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>357000</v>
+      </c>
+      <c r="D4">
+        <v>-850</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>375000</v>
+      </c>
+      <c r="D5">
+        <v>-270</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>

--- a/Simulation_Setup.xlsx
+++ b/Simulation_Setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyson\github\OrbitalManeuverVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACAAD5-B500-4EB7-93D5-63CE0E0ECE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B9479-D8FA-457F-828D-FFF7E410727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46320" yWindow="2670" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
+    <workbookView xWindow="2745" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{E0547398-81EC-4442-B289-8539944A6DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bodies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Transfer to Lunar Orbit</t>
+  </si>
+  <si>
+    <t>Rotation Period</t>
   </si>
 </sst>
 </file>
@@ -175,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A345BD4E-98DB-44D3-84BB-E97DFF0EBDEA}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,9 +510,11 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -603,8 +615,11 @@
       <c r="J3">
         <v>-30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>2361484.7999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -634,6 +649,9 @@
       </c>
       <c r="J4">
         <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +664,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E481B1B-DFE1-4187-9074-BE2B64D6C1C0}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
